--- a/out/production/guessThePokemon/sample/Excel/abilityDataBasePokemon.xlsx
+++ b/out/production/guessThePokemon/sample/Excel/abilityDataBasePokemon.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -347,7 +347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2518"/>
+  <dimension ref="A1:D2140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2518"/>
+      <selection activeCell="G2144" sqref="G2144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30329,5298 +30329,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2141" spans="1:4">
-      <c r="A2141" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B2141" s="1">
-        <v>46</v>
-      </c>
-      <c r="C2141" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2142" spans="1:4">
-      <c r="A2142" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B2142" s="1">
-        <v>46</v>
-      </c>
-      <c r="C2142" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2143" spans="1:4">
-      <c r="A2143" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B2143" s="1">
-        <v>46</v>
-      </c>
-      <c r="C2143" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2144" spans="1:4">
-      <c r="A2144" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B2144" s="1">
-        <v>107</v>
-      </c>
-      <c r="C2144" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2144" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2145" spans="1:4">
-      <c r="A2145" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B2145" s="1">
-        <v>142</v>
-      </c>
-      <c r="C2145" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2145" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2146" spans="1:4">
-      <c r="A2146" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B2146" s="1">
-        <v>107</v>
-      </c>
-      <c r="C2146" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2147" spans="1:4">
-      <c r="A2147" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B2147" s="1">
-        <v>142</v>
-      </c>
-      <c r="C2147" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2147" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2148" spans="1:4">
-      <c r="A2148" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B2148" s="1">
-        <v>32</v>
-      </c>
-      <c r="C2148" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2149" spans="1:4">
-      <c r="A2149" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B2149" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2149" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2150" spans="1:4">
-      <c r="A2150" s="1">
-        <v>10008</v>
-      </c>
-      <c r="B2150" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2150" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2150" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2151" spans="1:4">
-      <c r="A2151" s="1">
-        <v>10009</v>
-      </c>
-      <c r="B2151" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2151" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2151" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2152" spans="1:4">
-      <c r="A2152" s="1">
-        <v>10010</v>
-      </c>
-      <c r="B2152" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2152" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2152" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2153" spans="1:4">
-      <c r="A2153" s="1">
-        <v>10011</v>
-      </c>
-      <c r="B2153" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2153" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2153" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2154" spans="1:4">
-      <c r="A2154" s="1">
-        <v>10012</v>
-      </c>
-      <c r="B2154" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2154" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2154" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2155" spans="1:4">
-      <c r="A2155" s="1">
-        <v>10013</v>
-      </c>
-      <c r="B2155" s="1">
-        <v>59</v>
-      </c>
-      <c r="C2155" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2155" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2156" spans="1:4">
-      <c r="A2156" s="1">
-        <v>10014</v>
-      </c>
-      <c r="B2156" s="1">
-        <v>59</v>
-      </c>
-      <c r="C2156" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2156" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2157" spans="1:4">
-      <c r="A2157" s="1">
-        <v>10015</v>
-      </c>
-      <c r="B2157" s="1">
-        <v>59</v>
-      </c>
-      <c r="C2157" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2157" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2158" spans="1:4">
-      <c r="A2158" s="1">
-        <v>10016</v>
-      </c>
-      <c r="B2158" s="1">
-        <v>69</v>
-      </c>
-      <c r="C2158" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2158" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2159" spans="1:4">
-      <c r="A2159" s="1">
-        <v>10016</v>
-      </c>
-      <c r="B2159" s="1">
-        <v>91</v>
-      </c>
-      <c r="C2159" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2159" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2160" spans="1:4">
-      <c r="A2160" s="1">
-        <v>10016</v>
-      </c>
-      <c r="B2160" s="1">
-        <v>104</v>
-      </c>
-      <c r="C2160" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2160" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2161" spans="1:4">
-      <c r="A2161" s="1">
-        <v>10017</v>
-      </c>
-      <c r="B2161" s="1">
-        <v>125</v>
-      </c>
-      <c r="C2161" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2161" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2162" spans="1:4">
-      <c r="A2162" s="1">
-        <v>10017</v>
-      </c>
-      <c r="B2162" s="1">
-        <v>161</v>
-      </c>
-      <c r="C2162" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2162" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2163" spans="1:4">
-      <c r="A2163" s="1">
-        <v>10018</v>
-      </c>
-      <c r="B2163" s="1">
-        <v>32</v>
-      </c>
-      <c r="C2163" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2163" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2164" spans="1:4">
-      <c r="A2164" s="1">
-        <v>10019</v>
-      </c>
-      <c r="B2164" s="1">
-        <v>144</v>
-      </c>
-      <c r="C2164" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2164" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2165" spans="1:4">
-      <c r="A2165" s="1">
-        <v>10020</v>
-      </c>
-      <c r="B2165" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2165" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2165" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2166" spans="1:4">
-      <c r="A2166" s="1">
-        <v>10021</v>
-      </c>
-      <c r="B2166" s="1">
-        <v>22</v>
-      </c>
-      <c r="C2166" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2166" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2167" spans="1:4">
-      <c r="A2167" s="1">
-        <v>10022</v>
-      </c>
-      <c r="B2167" s="1">
-        <v>164</v>
-      </c>
-      <c r="C2167" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2167" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2168" spans="1:4">
-      <c r="A2168" s="1">
-        <v>10023</v>
-      </c>
-      <c r="B2168" s="1">
-        <v>163</v>
-      </c>
-      <c r="C2168" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2168" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2169" spans="1:4">
-      <c r="A2169" s="1">
-        <v>10024</v>
-      </c>
-      <c r="B2169" s="1">
-        <v>154</v>
-      </c>
-      <c r="C2169" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2169" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2170" spans="1:4">
-      <c r="A2170" s="1">
-        <v>10025</v>
-      </c>
-      <c r="B2170" s="1">
-        <v>51</v>
-      </c>
-      <c r="C2170" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2170" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2171" spans="1:4">
-      <c r="A2171" s="1">
-        <v>10025</v>
-      </c>
-      <c r="B2171" s="1">
-        <v>151</v>
-      </c>
-      <c r="C2171" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2171" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2172" spans="1:4">
-      <c r="A2172" s="1">
-        <v>10025</v>
-      </c>
-      <c r="B2172" s="1">
-        <v>172</v>
-      </c>
-      <c r="C2172" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2172" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2173" spans="1:4">
-      <c r="A2173" s="1">
-        <v>10026</v>
-      </c>
-      <c r="B2173" s="1">
-        <v>176</v>
-      </c>
-      <c r="C2173" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2173" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2174" spans="1:4">
-      <c r="A2174" s="1">
-        <v>10027</v>
-      </c>
-      <c r="B2174" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2174" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2174" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2175" spans="1:4">
-      <c r="A2175" s="1">
-        <v>10027</v>
-      </c>
-      <c r="B2175" s="1">
-        <v>119</v>
-      </c>
-      <c r="C2175" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2175" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2176" spans="1:4">
-      <c r="A2176" s="1">
-        <v>10027</v>
-      </c>
-      <c r="B2176" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2176" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2176" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2177" spans="1:4">
-      <c r="A2177" s="1">
-        <v>10028</v>
-      </c>
-      <c r="B2177" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2177" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2177" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2178" spans="1:4">
-      <c r="A2178" s="1">
-        <v>10028</v>
-      </c>
-      <c r="B2178" s="1">
-        <v>119</v>
-      </c>
-      <c r="C2178" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2178" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2179" spans="1:4">
-      <c r="A2179" s="1">
-        <v>10028</v>
-      </c>
-      <c r="B2179" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2179" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2179" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2180" spans="1:4">
-      <c r="A2180" s="1">
-        <v>10029</v>
-      </c>
-      <c r="B2180" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2180" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2180" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2181" spans="1:4">
-      <c r="A2181" s="1">
-        <v>10029</v>
-      </c>
-      <c r="B2181" s="1">
-        <v>119</v>
-      </c>
-      <c r="C2181" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2181" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2182" spans="1:4">
-      <c r="A2182" s="1">
-        <v>10029</v>
-      </c>
-      <c r="B2182" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2182" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2182" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2183" spans="1:4">
-      <c r="A2183" s="1">
-        <v>10030</v>
-      </c>
-      <c r="B2183" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2183" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2183" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2184" spans="1:4">
-      <c r="A2184" s="1">
-        <v>10030</v>
-      </c>
-      <c r="B2184" s="1">
-        <v>119</v>
-      </c>
-      <c r="C2184" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2184" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2185" spans="1:4">
-      <c r="A2185" s="1">
-        <v>10030</v>
-      </c>
-      <c r="B2185" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2185" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2185" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2186" spans="1:4">
-      <c r="A2186" s="1">
-        <v>10031</v>
-      </c>
-      <c r="B2186" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2186" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2186" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2187" spans="1:4">
-      <c r="A2187" s="1">
-        <v>10031</v>
-      </c>
-      <c r="B2187" s="1">
-        <v>119</v>
-      </c>
-      <c r="C2187" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2187" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2188" spans="1:4">
-      <c r="A2188" s="1">
-        <v>10031</v>
-      </c>
-      <c r="B2188" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2188" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2188" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2189" spans="1:4">
-      <c r="A2189" s="1">
-        <v>10032</v>
-      </c>
-      <c r="B2189" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2189" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2189" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2190" spans="1:4">
-      <c r="A2190" s="1">
-        <v>10032</v>
-      </c>
-      <c r="B2190" s="1">
-        <v>119</v>
-      </c>
-      <c r="C2190" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2190" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2191" spans="1:4">
-      <c r="A2191" s="1">
-        <v>10032</v>
-      </c>
-      <c r="B2191" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2191" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2191" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2192" spans="1:4">
-      <c r="A2192" s="1">
-        <v>10033</v>
-      </c>
-      <c r="B2192" s="1">
-        <v>47</v>
-      </c>
-      <c r="C2192" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2192" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2193" spans="1:4">
-      <c r="A2193" s="1">
-        <v>10034</v>
-      </c>
-      <c r="B2193" s="1">
-        <v>181</v>
-      </c>
-      <c r="C2193" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2193" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2194" spans="1:4">
-      <c r="A2194" s="1">
-        <v>10035</v>
-      </c>
-      <c r="B2194" s="1">
-        <v>70</v>
-      </c>
-      <c r="C2194" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2194" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2195" spans="1:4">
-      <c r="A2195" s="1">
-        <v>10036</v>
-      </c>
-      <c r="B2195" s="1">
-        <v>178</v>
-      </c>
-      <c r="C2195" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2195" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2196" spans="1:4">
-      <c r="A2196" s="1">
-        <v>10037</v>
-      </c>
-      <c r="B2196" s="1">
-        <v>36</v>
-      </c>
-      <c r="C2196" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2196" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2197" spans="1:4">
-      <c r="A2197" s="1">
-        <v>10038</v>
-      </c>
-      <c r="B2197" s="1">
-        <v>23</v>
-      </c>
-      <c r="C2197" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2198" spans="1:4">
-      <c r="A2198" s="1">
-        <v>10039</v>
-      </c>
-      <c r="B2198" s="1">
-        <v>185</v>
-      </c>
-      <c r="C2198" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2198" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2199" spans="1:4">
-      <c r="A2199" s="1">
-        <v>10040</v>
-      </c>
-      <c r="B2199" s="1">
-        <v>184</v>
-      </c>
-      <c r="C2199" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2199" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2200" spans="1:4">
-      <c r="A2200" s="1">
-        <v>10041</v>
-      </c>
-      <c r="B2200" s="1">
-        <v>104</v>
-      </c>
-      <c r="C2200" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2200" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2201" spans="1:4">
-      <c r="A2201" s="1">
-        <v>10042</v>
-      </c>
-      <c r="B2201" s="1">
-        <v>181</v>
-      </c>
-      <c r="C2201" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2201" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2202" spans="1:4">
-      <c r="A2202" s="1">
-        <v>10043</v>
-      </c>
-      <c r="B2202" s="1">
-        <v>80</v>
-      </c>
-      <c r="C2202" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2202" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2203" spans="1:4">
-      <c r="A2203" s="1">
-        <v>10044</v>
-      </c>
-      <c r="B2203" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2203" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2203" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2204" spans="1:4">
-      <c r="A2204" s="1">
-        <v>10045</v>
-      </c>
-      <c r="B2204" s="1">
-        <v>104</v>
-      </c>
-      <c r="C2204" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2204" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2205" spans="1:4">
-      <c r="A2205" s="1">
-        <v>10046</v>
-      </c>
-      <c r="B2205" s="1">
-        <v>101</v>
-      </c>
-      <c r="C2205" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2205" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2206" spans="1:4">
-      <c r="A2206" s="1">
-        <v>10047</v>
-      </c>
-      <c r="B2206" s="1">
-        <v>92</v>
-      </c>
-      <c r="C2206" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2206" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2207" spans="1:4">
-      <c r="A2207" s="1">
-        <v>10048</v>
-      </c>
-      <c r="B2207" s="1">
-        <v>94</v>
-      </c>
-      <c r="C2207" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2207" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2208" spans="1:4">
-      <c r="A2208" s="1">
-        <v>10049</v>
-      </c>
-      <c r="B2208" s="1">
-        <v>45</v>
-      </c>
-      <c r="C2208" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2208" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2209" spans="1:4">
-      <c r="A2209" s="1">
-        <v>10050</v>
-      </c>
-      <c r="B2209" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2209" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2209" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2210" spans="1:4">
-      <c r="A2210" s="1">
-        <v>10051</v>
-      </c>
-      <c r="B2210" s="1">
-        <v>182</v>
-      </c>
-      <c r="C2210" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2210" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2211" spans="1:4">
-      <c r="A2211" s="1">
-        <v>10052</v>
-      </c>
-      <c r="B2211" s="1">
-        <v>37</v>
-      </c>
-      <c r="C2211" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2211" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2212" spans="1:4">
-      <c r="A2212" s="1">
-        <v>10053</v>
-      </c>
-      <c r="B2212" s="1">
-        <v>111</v>
-      </c>
-      <c r="C2212" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2212" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2213" spans="1:4">
-      <c r="A2213" s="1">
-        <v>10054</v>
-      </c>
-      <c r="B2213" s="1">
-        <v>74</v>
-      </c>
-      <c r="C2213" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2213" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2214" spans="1:4">
-      <c r="A2214" s="1">
-        <v>10055</v>
-      </c>
-      <c r="B2214" s="1">
-        <v>22</v>
-      </c>
-      <c r="C2214" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2214" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2215" spans="1:4">
-      <c r="A2215" s="1">
-        <v>10056</v>
-      </c>
-      <c r="B2215" s="1">
-        <v>158</v>
-      </c>
-      <c r="C2215" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2215" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2216" spans="1:4">
-      <c r="A2216" s="1">
-        <v>10057</v>
-      </c>
-      <c r="B2216" s="1">
-        <v>156</v>
-      </c>
-      <c r="C2216" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2216" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2217" spans="1:4">
-      <c r="A2217" s="1">
-        <v>10058</v>
-      </c>
-      <c r="B2217" s="1">
-        <v>159</v>
-      </c>
-      <c r="C2217" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2217" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2218" spans="1:4">
-      <c r="A2218" s="1">
-        <v>10059</v>
-      </c>
-      <c r="B2218" s="1">
-        <v>91</v>
-      </c>
-      <c r="C2218" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2218" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2219" spans="1:4">
-      <c r="A2219" s="1">
-        <v>10060</v>
-      </c>
-      <c r="B2219" s="1">
-        <v>117</v>
-      </c>
-      <c r="C2219" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2219" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2220" spans="1:4">
-      <c r="A2220" s="1">
-        <v>10061</v>
-      </c>
-      <c r="B2220" s="1">
-        <v>166</v>
-      </c>
-      <c r="C2220" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2220" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2221" spans="1:4">
-      <c r="A2221" s="1">
-        <v>10061</v>
-      </c>
-      <c r="B2221" s="1">
-        <v>180</v>
-      </c>
-      <c r="C2221" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2221" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2222" spans="1:4">
-      <c r="A2222" s="1">
-        <v>10062</v>
-      </c>
-      <c r="B2222" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2222" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2222" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2223" spans="1:4">
-      <c r="A2223" s="1">
-        <v>10063</v>
-      </c>
-      <c r="B2223" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2223" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2223" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2224" spans="1:4">
-      <c r="A2224" s="1">
-        <v>10064</v>
-      </c>
-      <c r="B2224" s="1">
-        <v>33</v>
-      </c>
-      <c r="C2224" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2224" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2225" spans="1:4">
-      <c r="A2225" s="1">
-        <v>10065</v>
-      </c>
-      <c r="B2225" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2225" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2225" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2226" spans="1:4">
-      <c r="A2226" s="1">
-        <v>10066</v>
-      </c>
-      <c r="B2226" s="1">
-        <v>156</v>
-      </c>
-      <c r="C2226" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2226" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2227" spans="1:4">
-      <c r="A2227" s="1">
-        <v>10067</v>
-      </c>
-      <c r="B2227" s="1">
-        <v>182</v>
-      </c>
-      <c r="C2227" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2227" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2228" spans="1:4">
-      <c r="A2228" s="1">
-        <v>10068</v>
-      </c>
-      <c r="B2228" s="1">
-        <v>39</v>
-      </c>
-      <c r="C2228" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2228" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2229" spans="1:4">
-      <c r="A2229" s="1">
-        <v>10069</v>
-      </c>
-      <c r="B2229" s="1">
-        <v>131</v>
-      </c>
-      <c r="C2229" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2229" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2230" spans="1:4">
-      <c r="A2230" s="1">
-        <v>10070</v>
-      </c>
-      <c r="B2230" s="1">
-        <v>173</v>
-      </c>
-      <c r="C2230" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2230" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2231" spans="1:4">
-      <c r="A2231" s="1">
-        <v>10071</v>
-      </c>
-      <c r="B2231" s="1">
-        <v>75</v>
-      </c>
-      <c r="C2231" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2231" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2232" spans="1:4">
-      <c r="A2232" s="1">
-        <v>10072</v>
-      </c>
-      <c r="B2232" s="1">
-        <v>159</v>
-      </c>
-      <c r="C2232" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2232" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2233" spans="1:4">
-      <c r="A2233" s="1">
-        <v>10073</v>
-      </c>
-      <c r="B2233" s="1">
-        <v>99</v>
-      </c>
-      <c r="C2233" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2233" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2234" spans="1:4">
-      <c r="A2234" s="1">
-        <v>10074</v>
-      </c>
-      <c r="B2234" s="1">
-        <v>174</v>
-      </c>
-      <c r="C2234" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2234" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2235" spans="1:4">
-      <c r="A2235" s="1">
-        <v>10075</v>
-      </c>
-      <c r="B2235" s="1">
-        <v>156</v>
-      </c>
-      <c r="C2235" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2235" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2236" spans="1:4">
-      <c r="A2236" s="1">
-        <v>10076</v>
-      </c>
-      <c r="B2236" s="1">
-        <v>181</v>
-      </c>
-      <c r="C2236" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2236" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2237" spans="1:4">
-      <c r="A2237" s="1">
-        <v>10077</v>
-      </c>
-      <c r="B2237" s="1">
-        <v>189</v>
-      </c>
-      <c r="C2237" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2237" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2238" spans="1:4">
-      <c r="A2238" s="1">
-        <v>10078</v>
-      </c>
-      <c r="B2238" s="1">
-        <v>190</v>
-      </c>
-      <c r="C2238" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2238" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2239" spans="1:4">
-      <c r="A2239" s="1">
-        <v>10079</v>
-      </c>
-      <c r="B2239" s="1">
-        <v>191</v>
-      </c>
-      <c r="C2239" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2239" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2240" spans="1:4">
-      <c r="A2240" s="1">
-        <v>10080</v>
-      </c>
-      <c r="B2240" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2240" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2240" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2241" spans="1:4">
-      <c r="A2241" s="1">
-        <v>10080</v>
-      </c>
-      <c r="B2241" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2241" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2241" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2242" spans="1:4">
-      <c r="A2242" s="1">
-        <v>10081</v>
-      </c>
-      <c r="B2242" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2242" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2242" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2243" spans="1:4">
-      <c r="A2243" s="1">
-        <v>10081</v>
-      </c>
-      <c r="B2243" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2243" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2243" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2244" spans="1:4">
-      <c r="A2244" s="1">
-        <v>10082</v>
-      </c>
-      <c r="B2244" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2244" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2244" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2245" spans="1:4">
-      <c r="A2245" s="1">
-        <v>10082</v>
-      </c>
-      <c r="B2245" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2245" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2245" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2246" spans="1:4">
-      <c r="A2246" s="1">
-        <v>10083</v>
-      </c>
-      <c r="B2246" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2246" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2246" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2247" spans="1:4">
-      <c r="A2247" s="1">
-        <v>10083</v>
-      </c>
-      <c r="B2247" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2247" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2247" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2248" spans="1:4">
-      <c r="A2248" s="1">
-        <v>10084</v>
-      </c>
-      <c r="B2248" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2248" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2248" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2249" spans="1:4">
-      <c r="A2249" s="1">
-        <v>10084</v>
-      </c>
-      <c r="B2249" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2249" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2249" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2250" spans="1:4">
-      <c r="A2250" s="1">
-        <v>10085</v>
-      </c>
-      <c r="B2250" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2250" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2250" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2251" spans="1:4">
-      <c r="A2251" s="1">
-        <v>10085</v>
-      </c>
-      <c r="B2251" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2251" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2251" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2252" spans="1:4">
-      <c r="A2252" s="1">
-        <v>10086</v>
-      </c>
-      <c r="B2252" s="1">
-        <v>170</v>
-      </c>
-      <c r="C2252" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2252" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2253" spans="1:4">
-      <c r="A2253" s="1">
-        <v>10087</v>
-      </c>
-      <c r="B2253" s="1">
-        <v>125</v>
-      </c>
-      <c r="C2253" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2253" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2254" spans="1:4">
-      <c r="A2254" s="1">
-        <v>10088</v>
-      </c>
-      <c r="B2254" s="1">
-        <v>113</v>
-      </c>
-      <c r="C2254" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2254" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2255" spans="1:4">
-      <c r="A2255" s="1">
-        <v>10089</v>
-      </c>
-      <c r="B2255" s="1">
-        <v>184</v>
-      </c>
-      <c r="C2255" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2255" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2256" spans="1:4">
-      <c r="A2256" s="1">
-        <v>10090</v>
-      </c>
-      <c r="B2256" s="1">
-        <v>91</v>
-      </c>
-      <c r="C2256" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2256" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2257" spans="1:4">
-      <c r="A2257" s="1">
-        <v>10091</v>
-      </c>
-      <c r="B2257" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2257" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2257" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2258" spans="1:4">
-      <c r="A2258" s="1">
-        <v>10091</v>
-      </c>
-      <c r="B2258" s="1">
-        <v>55</v>
-      </c>
-      <c r="C2258" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2258" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2259" spans="1:4">
-      <c r="A2259" s="1">
-        <v>10091</v>
-      </c>
-      <c r="B2259" s="1">
-        <v>47</v>
-      </c>
-      <c r="C2259" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2259" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2260" spans="1:4">
-      <c r="A2260" s="1">
-        <v>10092</v>
-      </c>
-      <c r="B2260" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2260" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2260" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2261" spans="1:4">
-      <c r="A2261" s="1">
-        <v>10092</v>
-      </c>
-      <c r="B2261" s="1">
-        <v>55</v>
-      </c>
-      <c r="C2261" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2261" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2262" spans="1:4">
-      <c r="A2262" s="1">
-        <v>10092</v>
-      </c>
-      <c r="B2262" s="1">
-        <v>47</v>
-      </c>
-      <c r="C2262" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2262" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2263" spans="1:4">
-      <c r="A2263" s="1">
-        <v>10093</v>
-      </c>
-      <c r="B2263" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2263" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2263" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2264" spans="1:4">
-      <c r="A2264" s="1">
-        <v>10093</v>
-      </c>
-      <c r="B2264" s="1">
-        <v>55</v>
-      </c>
-      <c r="C2264" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2264" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2265" spans="1:4">
-      <c r="A2265" s="1">
-        <v>10093</v>
-      </c>
-      <c r="B2265" s="1">
-        <v>47</v>
-      </c>
-      <c r="C2265" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2265" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2266" spans="1:4">
-      <c r="A2266" s="1">
-        <v>10094</v>
-      </c>
-      <c r="B2266" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2266" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2266" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2267" spans="1:4">
-      <c r="A2267" s="1">
-        <v>10094</v>
-      </c>
-      <c r="B2267" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2267" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2267" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2268" spans="1:4">
-      <c r="A2268" s="1">
-        <v>10095</v>
-      </c>
-      <c r="B2268" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2268" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2268" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2269" spans="1:4">
-      <c r="A2269" s="1">
-        <v>10095</v>
-      </c>
-      <c r="B2269" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2269" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2269" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2270" spans="1:4">
-      <c r="A2270" s="1">
-        <v>10096</v>
-      </c>
-      <c r="B2270" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2270" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2270" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2271" spans="1:4">
-      <c r="A2271" s="1">
-        <v>10096</v>
-      </c>
-      <c r="B2271" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2271" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2271" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2272" spans="1:4">
-      <c r="A2272" s="1">
-        <v>10097</v>
-      </c>
-      <c r="B2272" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2272" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2272" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2273" spans="1:4">
-      <c r="A2273" s="1">
-        <v>10097</v>
-      </c>
-      <c r="B2273" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2273" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2273" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2274" spans="1:4">
-      <c r="A2274" s="1">
-        <v>10098</v>
-      </c>
-      <c r="B2274" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2274" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2274" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2275" spans="1:4">
-      <c r="A2275" s="1">
-        <v>10098</v>
-      </c>
-      <c r="B2275" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2275" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2275" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2276" spans="1:4">
-      <c r="A2276" s="1">
-        <v>10099</v>
-      </c>
-      <c r="B2276" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2276" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2276" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2277" spans="1:4">
-      <c r="A2277" s="1">
-        <v>10099</v>
-      </c>
-      <c r="B2277" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2277" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2277" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2278" spans="1:4">
-      <c r="A2278" s="1">
-        <v>10100</v>
-      </c>
-      <c r="B2278" s="1">
-        <v>207</v>
-      </c>
-      <c r="C2278" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2278" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2279" spans="1:4">
-      <c r="A2279" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B2279" s="1">
-        <v>81</v>
-      </c>
-      <c r="C2279" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2279" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2280" spans="1:4">
-      <c r="A2280" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B2280" s="1">
-        <v>202</v>
-      </c>
-      <c r="C2280" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2280" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2281" spans="1:4">
-      <c r="A2281" s="1">
-        <v>10102</v>
-      </c>
-      <c r="B2281" s="1">
-        <v>81</v>
-      </c>
-      <c r="C2281" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2281" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2282" spans="1:4">
-      <c r="A2282" s="1">
-        <v>10102</v>
-      </c>
-      <c r="B2282" s="1">
-        <v>202</v>
-      </c>
-      <c r="C2282" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2282" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2283" spans="1:4">
-      <c r="A2283" s="1">
-        <v>10103</v>
-      </c>
-      <c r="B2283" s="1">
-        <v>81</v>
-      </c>
-      <c r="C2283" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2283" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2284" spans="1:4">
-      <c r="A2284" s="1">
-        <v>10103</v>
-      </c>
-      <c r="B2284" s="1">
-        <v>117</v>
-      </c>
-      <c r="C2284" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2284" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2285" spans="1:4">
-      <c r="A2285" s="1">
-        <v>10104</v>
-      </c>
-      <c r="B2285" s="1">
-        <v>81</v>
-      </c>
-      <c r="C2285" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2285" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2286" spans="1:4">
-      <c r="A2286" s="1">
-        <v>10104</v>
-      </c>
-      <c r="B2286" s="1">
-        <v>117</v>
-      </c>
-      <c r="C2286" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2286" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2287" spans="1:4">
-      <c r="A2287" s="1">
-        <v>10105</v>
-      </c>
-      <c r="B2287" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2287" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2287" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2288" spans="1:4">
-      <c r="A2288" s="1">
-        <v>10105</v>
-      </c>
-      <c r="B2288" s="1">
-        <v>221</v>
-      </c>
-      <c r="C2288" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2288" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2289" spans="1:4">
-      <c r="A2289" s="1">
-        <v>10105</v>
-      </c>
-      <c r="B2289" s="1">
-        <v>159</v>
-      </c>
-      <c r="C2289" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2289" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2290" spans="1:4">
-      <c r="A2290" s="1">
-        <v>10106</v>
-      </c>
-      <c r="B2290" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2290" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2290" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2291" spans="1:4">
-      <c r="A2291" s="1">
-        <v>10106</v>
-      </c>
-      <c r="B2291" s="1">
-        <v>221</v>
-      </c>
-      <c r="C2291" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2291" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2292" spans="1:4">
-      <c r="A2292" s="1">
-        <v>10106</v>
-      </c>
-      <c r="B2292" s="1">
-        <v>159</v>
-      </c>
-      <c r="C2292" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2292" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2293" spans="1:4">
-      <c r="A2293" s="1">
-        <v>10107</v>
-      </c>
-      <c r="B2293" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2293" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2293" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2294" spans="1:4">
-      <c r="A2294" s="1">
-        <v>10107</v>
-      </c>
-      <c r="B2294" s="1">
-        <v>101</v>
-      </c>
-      <c r="C2294" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2294" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2295" spans="1:4">
-      <c r="A2295" s="1">
-        <v>10107</v>
-      </c>
-      <c r="B2295" s="1">
-        <v>155</v>
-      </c>
-      <c r="C2295" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2295" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2296" spans="1:4">
-      <c r="A2296" s="1">
-        <v>10108</v>
-      </c>
-      <c r="B2296" s="1">
-        <v>169</v>
-      </c>
-      <c r="C2296" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2296" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2297" spans="1:4">
-      <c r="A2297" s="1">
-        <v>10108</v>
-      </c>
-      <c r="B2297" s="1">
-        <v>101</v>
-      </c>
-      <c r="C2297" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2297" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2298" spans="1:4">
-      <c r="A2298" s="1">
-        <v>10108</v>
-      </c>
-      <c r="B2298" s="1">
-        <v>155</v>
-      </c>
-      <c r="C2298" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2298" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2299" spans="1:4">
-      <c r="A2299" s="1">
-        <v>10109</v>
-      </c>
-      <c r="B2299" s="1">
-        <v>42</v>
-      </c>
-      <c r="C2299" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2299" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2300" spans="1:4">
-      <c r="A2300" s="1">
-        <v>10109</v>
-      </c>
-      <c r="B2300" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2300" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2300" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2301" spans="1:4">
-      <c r="A2301" s="1">
-        <v>10109</v>
-      </c>
-      <c r="B2301" s="1">
-        <v>206</v>
-      </c>
-      <c r="C2301" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2301" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2302" spans="1:4">
-      <c r="A2302" s="1">
-        <v>10110</v>
-      </c>
-      <c r="B2302" s="1">
-        <v>42</v>
-      </c>
-      <c r="C2302" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2302" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2303" spans="1:4">
-      <c r="A2303" s="1">
-        <v>10110</v>
-      </c>
-      <c r="B2303" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2303" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2303" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2304" spans="1:4">
-      <c r="A2304" s="1">
-        <v>10110</v>
-      </c>
-      <c r="B2304" s="1">
-        <v>206</v>
-      </c>
-      <c r="C2304" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2304" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2305" spans="1:4">
-      <c r="A2305" s="1">
-        <v>10111</v>
-      </c>
-      <c r="B2305" s="1">
-        <v>42</v>
-      </c>
-      <c r="C2305" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2305" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2306" spans="1:4">
-      <c r="A2306" s="1">
-        <v>10111</v>
-      </c>
-      <c r="B2306" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2306" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2306" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2307" spans="1:4">
-      <c r="A2307" s="1">
-        <v>10111</v>
-      </c>
-      <c r="B2307" s="1">
-        <v>206</v>
-      </c>
-      <c r="C2307" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2307" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2308" spans="1:4">
-      <c r="A2308" s="1">
-        <v>10112</v>
-      </c>
-      <c r="B2308" s="1">
-        <v>143</v>
-      </c>
-      <c r="C2308" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2308" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2309" spans="1:4">
-      <c r="A2309" s="1">
-        <v>10112</v>
-      </c>
-      <c r="B2309" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2309" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2309" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2310" spans="1:4">
-      <c r="A2310" s="1">
-        <v>10112</v>
-      </c>
-      <c r="B2310" s="1">
-        <v>223</v>
-      </c>
-      <c r="C2310" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2310" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2311" spans="1:4">
-      <c r="A2311" s="1">
-        <v>10113</v>
-      </c>
-      <c r="B2311" s="1">
-        <v>143</v>
-      </c>
-      <c r="C2311" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2311" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2312" spans="1:4">
-      <c r="A2312" s="1">
-        <v>10113</v>
-      </c>
-      <c r="B2312" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2312" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2312" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2313" spans="1:4">
-      <c r="A2313" s="1">
-        <v>10113</v>
-      </c>
-      <c r="B2313" s="1">
-        <v>223</v>
-      </c>
-      <c r="C2313" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2313" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2314" spans="1:4">
-      <c r="A2314" s="1">
-        <v>10114</v>
-      </c>
-      <c r="B2314" s="1">
-        <v>119</v>
-      </c>
-      <c r="C2314" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2314" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2315" spans="1:4">
-      <c r="A2315" s="1">
-        <v>10114</v>
-      </c>
-      <c r="B2315" s="1">
-        <v>139</v>
-      </c>
-      <c r="C2315" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2315" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2316" spans="1:4">
-      <c r="A2316" s="1">
-        <v>10115</v>
-      </c>
-      <c r="B2316" s="1">
-        <v>130</v>
-      </c>
-      <c r="C2316" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2316" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2317" spans="1:4">
-      <c r="A2317" s="1">
-        <v>10115</v>
-      </c>
-      <c r="B2317" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2317" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2317" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2318" spans="1:4">
-      <c r="A2318" s="1">
-        <v>10115</v>
-      </c>
-      <c r="B2318" s="1">
-        <v>69</v>
-      </c>
-      <c r="C2318" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2318" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2319" spans="1:4">
-      <c r="A2319" s="1">
-        <v>10116</v>
-      </c>
-      <c r="B2319" s="1">
-        <v>210</v>
-      </c>
-      <c r="C2319" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2319" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2320" spans="1:4">
-      <c r="A2320" s="1">
-        <v>10117</v>
-      </c>
-      <c r="B2320" s="1">
-        <v>210</v>
-      </c>
-      <c r="C2320" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2320" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2321" spans="1:4">
-      <c r="A2321" s="1">
-        <v>10118</v>
-      </c>
-      <c r="B2321" s="1">
-        <v>211</v>
-      </c>
-      <c r="C2321" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2321" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2322" spans="1:4">
-      <c r="A2322" s="1">
-        <v>10119</v>
-      </c>
-      <c r="B2322" s="1">
-        <v>211</v>
-      </c>
-      <c r="C2322" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2322" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2323" spans="1:4">
-      <c r="A2323" s="1">
-        <v>10120</v>
-      </c>
-      <c r="B2323" s="1">
-        <v>211</v>
-      </c>
-      <c r="C2323" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2323" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2324" spans="1:4">
-      <c r="A2324" s="1">
-        <v>10121</v>
-      </c>
-      <c r="B2324" s="1">
-        <v>198</v>
-      </c>
-      <c r="C2324" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2324" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2325" spans="1:4">
-      <c r="A2325" s="1">
-        <v>10121</v>
-      </c>
-      <c r="B2325" s="1">
-        <v>173</v>
-      </c>
-      <c r="C2325" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2325" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2326" spans="1:4">
-      <c r="A2326" s="1">
-        <v>10121</v>
-      </c>
-      <c r="B2326" s="1">
-        <v>91</v>
-      </c>
-      <c r="C2326" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2326" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2327" spans="1:4">
-      <c r="A2327" s="1">
-        <v>10122</v>
-      </c>
-      <c r="B2327" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2327" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2327" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2328" spans="1:4">
-      <c r="A2328" s="1">
-        <v>10123</v>
-      </c>
-      <c r="B2328" s="1">
-        <v>216</v>
-      </c>
-      <c r="C2328" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2328" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2329" spans="1:4">
-      <c r="A2329" s="1">
-        <v>10124</v>
-      </c>
-      <c r="B2329" s="1">
-        <v>216</v>
-      </c>
-      <c r="C2329" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2329" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2330" spans="1:4">
-      <c r="A2330" s="1">
-        <v>10125</v>
-      </c>
-      <c r="B2330" s="1">
-        <v>216</v>
-      </c>
-      <c r="C2330" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2330" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2331" spans="1:4">
-      <c r="A2331" s="1">
-        <v>10126</v>
-      </c>
-      <c r="B2331" s="1">
-        <v>51</v>
-      </c>
-      <c r="C2331" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2331" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2332" spans="1:4">
-      <c r="A2332" s="1">
-        <v>10126</v>
-      </c>
-      <c r="B2332" s="1">
-        <v>72</v>
-      </c>
-      <c r="C2332" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2332" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2333" spans="1:4">
-      <c r="A2333" s="1">
-        <v>10126</v>
-      </c>
-      <c r="B2333" s="1">
-        <v>99</v>
-      </c>
-      <c r="C2333" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2333" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2334" spans="1:4">
-      <c r="A2334" s="1">
-        <v>10127</v>
-      </c>
-      <c r="B2334" s="1">
-        <v>208</v>
-      </c>
-      <c r="C2334" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2334" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2335" spans="1:4">
-      <c r="A2335" s="1">
-        <v>10128</v>
-      </c>
-      <c r="B2335" s="1">
-        <v>102</v>
-      </c>
-      <c r="C2335" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2335" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2336" spans="1:4">
-      <c r="A2336" s="1">
-        <v>10128</v>
-      </c>
-      <c r="B2336" s="1">
-        <v>126</v>
-      </c>
-      <c r="C2336" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2336" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2337" spans="1:4">
-      <c r="A2337" s="1">
-        <v>10129</v>
-      </c>
-      <c r="B2337" s="1">
-        <v>212</v>
-      </c>
-      <c r="C2337" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2337" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2338" spans="1:4">
-      <c r="A2338" s="1">
-        <v>10129</v>
-      </c>
-      <c r="B2338" s="1">
-        <v>12</v>
-      </c>
-      <c r="C2338" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2338" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2339" spans="1:4">
-      <c r="A2339" s="1">
-        <v>10130</v>
-      </c>
-      <c r="B2339" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2339" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2339" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2340" spans="1:4">
-      <c r="A2340" s="1">
-        <v>10131</v>
-      </c>
-      <c r="B2340" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2340" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2340" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2341" spans="1:4">
-      <c r="A2341" s="1">
-        <v>10132</v>
-      </c>
-      <c r="B2341" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2341" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2341" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2342" spans="1:4">
-      <c r="A2342" s="1">
-        <v>10133</v>
-      </c>
-      <c r="B2342" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2342" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2342" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2343" spans="1:4">
-      <c r="A2343" s="1">
-        <v>10134</v>
-      </c>
-      <c r="B2343" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2343" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2343" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2344" spans="1:4">
-      <c r="A2344" s="1">
-        <v>10135</v>
-      </c>
-      <c r="B2344" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2344" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2344" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2345" spans="1:4">
-      <c r="A2345" s="1">
-        <v>10136</v>
-      </c>
-      <c r="B2345" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2345" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2345" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2346" spans="1:4">
-      <c r="A2346" s="1">
-        <v>10137</v>
-      </c>
-      <c r="B2346" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2346" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2346" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2347" spans="1:4">
-      <c r="A2347" s="1">
-        <v>10138</v>
-      </c>
-      <c r="B2347" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2347" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2347" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2348" spans="1:4">
-      <c r="A2348" s="1">
-        <v>10139</v>
-      </c>
-      <c r="B2348" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2348" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2348" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2349" spans="1:4">
-      <c r="A2349" s="1">
-        <v>10140</v>
-      </c>
-      <c r="B2349" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2349" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2349" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2350" spans="1:4">
-      <c r="A2350" s="1">
-        <v>10141</v>
-      </c>
-      <c r="B2350" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2350" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2350" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2351" spans="1:4">
-      <c r="A2351" s="1">
-        <v>10142</v>
-      </c>
-      <c r="B2351" s="1">
-        <v>197</v>
-      </c>
-      <c r="C2351" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2351" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2352" spans="1:4">
-      <c r="A2352" s="1">
-        <v>10143</v>
-      </c>
-      <c r="B2352" s="1">
-        <v>209</v>
-      </c>
-      <c r="C2352" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2352" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2353" spans="1:4">
-      <c r="A2353" s="1">
-        <v>10144</v>
-      </c>
-      <c r="B2353" s="1">
-        <v>209</v>
-      </c>
-      <c r="C2353" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2353" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2354" spans="1:4">
-      <c r="A2354" s="1">
-        <v>10145</v>
-      </c>
-      <c r="B2354" s="1">
-        <v>209</v>
-      </c>
-      <c r="C2354" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2354" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2355" spans="1:4">
-      <c r="A2355" s="1">
-        <v>10146</v>
-      </c>
-      <c r="B2355" s="1">
-        <v>171</v>
-      </c>
-      <c r="C2355" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2355" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2356" spans="1:4">
-      <c r="A2356" s="1">
-        <v>10146</v>
-      </c>
-      <c r="B2356" s="1">
-        <v>43</v>
-      </c>
-      <c r="C2356" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2356" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2357" spans="1:4">
-      <c r="A2357" s="1">
-        <v>10146</v>
-      </c>
-      <c r="B2357" s="1">
-        <v>142</v>
-      </c>
-      <c r="C2357" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2357" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2358" spans="1:4">
-      <c r="A2358" s="1">
-        <v>10147</v>
-      </c>
-      <c r="B2358" s="1">
-        <v>220</v>
-      </c>
-      <c r="C2358" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2358" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2359" spans="1:4">
-      <c r="A2359" s="1">
-        <v>10148</v>
-      </c>
-      <c r="B2359" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2359" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2359" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2360" spans="1:4">
-      <c r="A2360" s="1">
-        <v>10148</v>
-      </c>
-      <c r="B2360" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2360" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2360" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2361" spans="1:4">
-      <c r="A2361" s="1">
-        <v>10149</v>
-      </c>
-      <c r="B2361" s="1">
-        <v>130</v>
-      </c>
-      <c r="C2361" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2361" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2362" spans="1:4">
-      <c r="A2362" s="1">
-        <v>10149</v>
-      </c>
-      <c r="B2362" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2362" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2362" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2363" spans="1:4">
-      <c r="A2363" s="1">
-        <v>10149</v>
-      </c>
-      <c r="B2363" s="1">
-        <v>69</v>
-      </c>
-      <c r="C2363" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2363" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2364" spans="1:4">
-      <c r="A2364" s="1">
-        <v>10150</v>
-      </c>
-      <c r="B2364" s="1">
-        <v>118</v>
-      </c>
-      <c r="C2364" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2364" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2365" spans="1:4">
-      <c r="A2365" s="1">
-        <v>10150</v>
-      </c>
-      <c r="B2365" s="1">
-        <v>19</v>
-      </c>
-      <c r="C2365" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2365" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2366" spans="1:4">
-      <c r="A2366" s="1">
-        <v>10150</v>
-      </c>
-      <c r="B2366" s="1">
-        <v>175</v>
-      </c>
-      <c r="C2366" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2366" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2367" spans="1:4">
-      <c r="A2367" s="1">
-        <v>10151</v>
-      </c>
-      <c r="B2367" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2367" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2367" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2368" spans="1:4">
-      <c r="A2368" s="1">
-        <v>10152</v>
-      </c>
-      <c r="B2368" s="1">
-        <v>181</v>
-      </c>
-      <c r="C2368" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2368" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2369" spans="1:4">
-      <c r="A2369" s="1">
-        <v>10153</v>
-      </c>
-      <c r="B2369" s="1">
-        <v>199</v>
-      </c>
-      <c r="C2369" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2369" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2370" spans="1:4">
-      <c r="A2370" s="1">
-        <v>10153</v>
-      </c>
-      <c r="B2370" s="1">
-        <v>11</v>
-      </c>
-      <c r="C2370" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2370" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2371" spans="1:4">
-      <c r="A2371" s="1">
-        <v>10154</v>
-      </c>
-      <c r="B2371" s="1">
-        <v>160</v>
-      </c>
-      <c r="C2371" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2371" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2372" spans="1:4">
-      <c r="A2372" s="1">
-        <v>10154</v>
-      </c>
-      <c r="B2372" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2372" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2372" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2373" spans="1:4">
-      <c r="A2373" s="1">
-        <v>10154</v>
-      </c>
-      <c r="B2373" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2373" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2373" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2374" spans="1:4">
-      <c r="A2374" s="1">
-        <v>10155</v>
-      </c>
-      <c r="B2374" s="1">
-        <v>232</v>
-      </c>
-      <c r="C2374" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2374" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2375" spans="1:4">
-      <c r="A2375" s="1">
-        <v>10156</v>
-      </c>
-      <c r="B2375" s="1">
-        <v>232</v>
-      </c>
-      <c r="C2375" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2375" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2376" spans="1:4">
-      <c r="A2376" s="1">
-        <v>10157</v>
-      </c>
-      <c r="B2376" s="1">
-        <v>233</v>
-      </c>
-      <c r="C2376" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2376" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2377" spans="1:4">
-      <c r="A2377" s="1">
-        <v>10158</v>
-      </c>
-      <c r="B2377" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2377" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2377" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2378" spans="1:4">
-      <c r="A2378" s="1">
-        <v>10158</v>
-      </c>
-      <c r="B2378" s="1">
-        <v>181</v>
-      </c>
-      <c r="C2378" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2378" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2379" spans="1:4">
-      <c r="A2379" s="1">
-        <v>10158</v>
-      </c>
-      <c r="B2379" s="1">
-        <v>127</v>
-      </c>
-      <c r="C2379" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2379" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2380" spans="1:4">
-      <c r="A2380" s="1">
-        <v>10159</v>
-      </c>
-      <c r="B2380" s="1">
-        <v>50</v>
-      </c>
-      <c r="C2380" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2380" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2381" spans="1:4">
-      <c r="A2381" s="1">
-        <v>10159</v>
-      </c>
-      <c r="B2381" s="1">
-        <v>257</v>
-      </c>
-      <c r="C2381" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2381" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2382" spans="1:4">
-      <c r="A2382" s="1">
-        <v>10159</v>
-      </c>
-      <c r="B2382" s="1">
-        <v>107</v>
-      </c>
-      <c r="C2382" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2382" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2383" spans="1:4">
-      <c r="A2383" s="1">
-        <v>10160</v>
-      </c>
-      <c r="B2383" s="1">
-        <v>50</v>
-      </c>
-      <c r="C2383" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2383" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2384" spans="1:4">
-      <c r="A2384" s="1">
-        <v>10160</v>
-      </c>
-      <c r="B2384" s="1">
-        <v>257</v>
-      </c>
-      <c r="C2384" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2384" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2385" spans="1:4">
-      <c r="A2385" s="1">
-        <v>10160</v>
-      </c>
-      <c r="B2385" s="1">
-        <v>107</v>
-      </c>
-      <c r="C2385" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2385" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2386" spans="1:4">
-      <c r="A2386" s="1">
-        <v>10161</v>
-      </c>
-      <c r="B2386" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2386" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2386" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2387" spans="1:4">
-      <c r="A2387" s="1">
-        <v>10161</v>
-      </c>
-      <c r="B2387" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2387" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2387" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2388" spans="1:4">
-      <c r="A2388" s="1">
-        <v>10161</v>
-      </c>
-      <c r="B2388" s="1">
-        <v>144</v>
-      </c>
-      <c r="C2388" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2388" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2389" spans="1:4">
-      <c r="A2389" s="1">
-        <v>10162</v>
-      </c>
-      <c r="B2389" s="1">
-        <v>259</v>
-      </c>
-      <c r="C2389" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2389" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2390" spans="1:4">
-      <c r="A2390" s="1">
-        <v>10162</v>
-      </c>
-      <c r="B2390" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2390" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2390" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2391" spans="1:4">
-      <c r="A2391" s="1">
-        <v>10162</v>
-      </c>
-      <c r="B2391" s="1">
-        <v>144</v>
-      </c>
-      <c r="C2391" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2391" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2392" spans="1:4">
-      <c r="A2392" s="1">
-        <v>10163</v>
-      </c>
-      <c r="B2392" s="1">
-        <v>80</v>
-      </c>
-      <c r="C2392" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2392" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2393" spans="1:4">
-      <c r="A2393" s="1">
-        <v>10163</v>
-      </c>
-      <c r="B2393" s="1">
-        <v>113</v>
-      </c>
-      <c r="C2393" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2393" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2394" spans="1:4">
-      <c r="A2394" s="1">
-        <v>10164</v>
-      </c>
-      <c r="B2394" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2394" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2394" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2395" spans="1:4">
-      <c r="A2395" s="1">
-        <v>10164</v>
-      </c>
-      <c r="B2395" s="1">
-        <v>256</v>
-      </c>
-      <c r="C2395" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2395" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2396" spans="1:4">
-      <c r="A2396" s="1">
-        <v>10164</v>
-      </c>
-      <c r="B2396" s="1">
-        <v>228</v>
-      </c>
-      <c r="C2396" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2396" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2397" spans="1:4">
-      <c r="A2397" s="1">
-        <v>10165</v>
-      </c>
-      <c r="B2397" s="1">
-        <v>72</v>
-      </c>
-      <c r="C2397" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2397" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2398" spans="1:4">
-      <c r="A2398" s="1">
-        <v>10165</v>
-      </c>
-      <c r="B2398" s="1">
-        <v>251</v>
-      </c>
-      <c r="C2398" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2398" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2399" spans="1:4">
-      <c r="A2399" s="1">
-        <v>10165</v>
-      </c>
-      <c r="B2399" s="1">
-        <v>115</v>
-      </c>
-      <c r="C2399" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2399" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2400" spans="1:4">
-      <c r="A2400" s="1">
-        <v>10166</v>
-      </c>
-      <c r="B2400" s="1">
-        <v>172</v>
-      </c>
-      <c r="C2400" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2400" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2401" spans="1:4">
-      <c r="A2401" s="1">
-        <v>10167</v>
-      </c>
-      <c r="B2401" s="1">
-        <v>128</v>
-      </c>
-      <c r="C2401" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2401" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2402" spans="1:4">
-      <c r="A2402" s="1">
-        <v>10168</v>
-      </c>
-      <c r="B2402" s="1">
-        <v>201</v>
-      </c>
-      <c r="C2402" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2402" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2403" spans="1:4">
-      <c r="A2403" s="1">
-        <v>10169</v>
-      </c>
-      <c r="B2403" s="1">
-        <v>261</v>
-      </c>
-      <c r="C2403" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2403" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2404" spans="1:4">
-      <c r="A2404" s="1">
-        <v>10169</v>
-      </c>
-      <c r="B2404" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2404" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2404" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2405" spans="1:4">
-      <c r="A2405" s="1">
-        <v>10169</v>
-      </c>
-      <c r="B2405" s="1">
-        <v>144</v>
-      </c>
-      <c r="C2405" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2405" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2406" spans="1:4">
-      <c r="A2406" s="1">
-        <v>10170</v>
-      </c>
-      <c r="B2406" s="1">
-        <v>133</v>
-      </c>
-      <c r="C2406" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2406" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2407" spans="1:4">
-      <c r="A2407" s="1">
-        <v>10170</v>
-      </c>
-      <c r="B2407" s="1">
-        <v>130</v>
-      </c>
-      <c r="C2407" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2407" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2408" spans="1:4">
-      <c r="A2408" s="1">
-        <v>10171</v>
-      </c>
-      <c r="B2408" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2408" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2408" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2409" spans="1:4">
-      <c r="A2409" s="1">
-        <v>10171</v>
-      </c>
-      <c r="B2409" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2409" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2409" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2410" spans="1:4">
-      <c r="A2410" s="1">
-        <v>10171</v>
-      </c>
-      <c r="B2410" s="1">
-        <v>95</v>
-      </c>
-      <c r="C2410" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2410" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2411" spans="1:4">
-      <c r="A2411" s="1">
-        <v>10172</v>
-      </c>
-      <c r="B2411" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2411" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2411" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2412" spans="1:4">
-      <c r="A2412" s="1">
-        <v>10172</v>
-      </c>
-      <c r="B2412" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2412" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2412" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2413" spans="1:4">
-      <c r="A2413" s="1">
-        <v>10172</v>
-      </c>
-      <c r="B2413" s="1">
-        <v>95</v>
-      </c>
-      <c r="C2413" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2413" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2414" spans="1:4">
-      <c r="A2414" s="1">
-        <v>10173</v>
-      </c>
-      <c r="B2414" s="1">
-        <v>55</v>
-      </c>
-      <c r="C2414" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2414" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2415" spans="1:4">
-      <c r="A2415" s="1">
-        <v>10173</v>
-      </c>
-      <c r="B2415" s="1">
-        <v>39</v>
-      </c>
-      <c r="C2415" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2415" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2416" spans="1:4">
-      <c r="A2416" s="1">
-        <v>10174</v>
-      </c>
-      <c r="B2416" s="1">
-        <v>255</v>
-      </c>
-      <c r="C2416" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2416" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2417" spans="1:4">
-      <c r="A2417" s="1">
-        <v>10174</v>
-      </c>
-      <c r="B2417" s="1">
-        <v>161</v>
-      </c>
-      <c r="C2417" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2417" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2418" spans="1:4">
-      <c r="A2418" s="1">
-        <v>10175</v>
-      </c>
-      <c r="B2418" s="1">
-        <v>255</v>
-      </c>
-      <c r="C2418" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2418" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2419" spans="1:4">
-      <c r="A2419" s="1">
-        <v>10175</v>
-      </c>
-      <c r="B2419" s="1">
-        <v>161</v>
-      </c>
-      <c r="C2419" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2419" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2420" spans="1:4">
-      <c r="A2420" s="1">
-        <v>10176</v>
-      </c>
-      <c r="B2420" s="1">
-        <v>254</v>
-      </c>
-      <c r="C2420" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2420" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2421" spans="1:4">
-      <c r="A2421" s="1">
-        <v>10177</v>
-      </c>
-      <c r="B2421" s="1">
-        <v>250</v>
-      </c>
-      <c r="C2421" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2421" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2422" spans="1:4">
-      <c r="A2422" s="1">
-        <v>10178</v>
-      </c>
-      <c r="B2422" s="1">
-        <v>244</v>
-      </c>
-      <c r="C2422" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2422" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2423" spans="1:4">
-      <c r="A2423" s="1">
-        <v>10178</v>
-      </c>
-      <c r="B2423" s="1">
-        <v>58</v>
-      </c>
-      <c r="C2423" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2423" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2424" spans="1:4">
-      <c r="A2424" s="1">
-        <v>10178</v>
-      </c>
-      <c r="B2424" s="1">
-        <v>101</v>
-      </c>
-      <c r="C2424" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2424" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2425" spans="1:4">
-      <c r="A2425" s="1">
-        <v>10179</v>
-      </c>
-      <c r="B2425" s="1">
-        <v>248</v>
-      </c>
-      <c r="C2425" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2425" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2426" spans="1:4">
-      <c r="A2426" s="1">
-        <v>10180</v>
-      </c>
-      <c r="B2426" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2426" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2426" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2427" spans="1:4">
-      <c r="A2427" s="1">
-        <v>10180</v>
-      </c>
-      <c r="B2427" s="1">
-        <v>28</v>
-      </c>
-      <c r="C2427" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2427" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2428" spans="1:4">
-      <c r="A2428" s="1">
-        <v>10180</v>
-      </c>
-      <c r="B2428" s="1">
-        <v>227</v>
-      </c>
-      <c r="C2428" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2428" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2429" spans="1:4">
-      <c r="A2429" s="1">
-        <v>10181</v>
-      </c>
-      <c r="B2429" s="1">
-        <v>234</v>
-      </c>
-      <c r="C2429" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2429" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2430" spans="1:4">
-      <c r="A2430" s="1">
-        <v>10182</v>
-      </c>
-      <c r="B2430" s="1">
-        <v>235</v>
-      </c>
-      <c r="C2430" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2430" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2431" spans="1:4">
-      <c r="A2431" s="1">
-        <v>10183</v>
-      </c>
-      <c r="B2431" s="1">
-        <v>260</v>
-      </c>
-      <c r="C2431" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2431" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2432" spans="1:4">
-      <c r="A2432" s="1">
-        <v>10184</v>
-      </c>
-      <c r="B2432" s="1">
-        <v>266</v>
-      </c>
-      <c r="C2432" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2432" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2433" spans="1:4">
-      <c r="A2433" s="1">
-        <v>10185</v>
-      </c>
-      <c r="B2433" s="1">
-        <v>267</v>
-      </c>
-      <c r="C2433" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2433" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2434" spans="1:4">
-      <c r="A2434" s="1">
-        <v>10186</v>
-      </c>
-      <c r="B2434" s="1">
-        <v>65</v>
-      </c>
-      <c r="C2434" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2434" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2435" spans="1:4">
-      <c r="A2435" s="1">
-        <v>10186</v>
-      </c>
-      <c r="B2435" s="1">
-        <v>34</v>
-      </c>
-      <c r="C2435" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2435" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2436" spans="1:4">
-      <c r="A2436" s="1">
-        <v>10187</v>
-      </c>
-      <c r="B2436" s="1">
-        <v>66</v>
-      </c>
-      <c r="C2436" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2436" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2437" spans="1:4">
-      <c r="A2437" s="1">
-        <v>10187</v>
-      </c>
-      <c r="B2437" s="1">
-        <v>94</v>
-      </c>
-      <c r="C2437" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2437" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2438" spans="1:4">
-      <c r="A2438" s="1">
-        <v>10188</v>
-      </c>
-      <c r="B2438" s="1">
-        <v>67</v>
-      </c>
-      <c r="C2438" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2438" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2439" spans="1:4">
-      <c r="A2439" s="1">
-        <v>10188</v>
-      </c>
-      <c r="B2439" s="1">
-        <v>44</v>
-      </c>
-      <c r="C2439" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2439" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2440" spans="1:4">
-      <c r="A2440" s="1">
-        <v>10189</v>
-      </c>
-      <c r="B2440" s="1">
-        <v>14</v>
-      </c>
-      <c r="C2440" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2440" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2441" spans="1:4">
-      <c r="A2441" s="1">
-        <v>10189</v>
-      </c>
-      <c r="B2441" s="1">
-        <v>110</v>
-      </c>
-      <c r="C2441" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2441" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2442" spans="1:4">
-      <c r="A2442" s="1">
-        <v>10190</v>
-      </c>
-      <c r="B2442" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2442" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2442" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2443" spans="1:4">
-      <c r="A2443" s="1">
-        <v>10190</v>
-      </c>
-      <c r="B2443" s="1">
-        <v>31</v>
-      </c>
-      <c r="C2443" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2443" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2444" spans="1:4">
-      <c r="A2444" s="1">
-        <v>10191</v>
-      </c>
-      <c r="B2444" s="1">
-        <v>53</v>
-      </c>
-      <c r="C2444" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2444" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2445" spans="1:4">
-      <c r="A2445" s="1">
-        <v>10191</v>
-      </c>
-      <c r="B2445" s="1">
-        <v>101</v>
-      </c>
-      <c r="C2445" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2445" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2446" spans="1:4">
-      <c r="A2446" s="1">
-        <v>10191</v>
-      </c>
-      <c r="B2446" s="1">
-        <v>127</v>
-      </c>
-      <c r="C2446" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2446" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2447" spans="1:4">
-      <c r="A2447" s="1">
-        <v>10192</v>
-      </c>
-      <c r="B2447" s="1">
-        <v>62</v>
-      </c>
-      <c r="C2447" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2447" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2448" spans="1:4">
-      <c r="A2448" s="1">
-        <v>10192</v>
-      </c>
-      <c r="B2448" s="1">
-        <v>99</v>
-      </c>
-      <c r="C2448" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2448" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2449" spans="1:4">
-      <c r="A2449" s="1">
-        <v>10192</v>
-      </c>
-      <c r="B2449" s="1">
-        <v>80</v>
-      </c>
-      <c r="C2449" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2449" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2450" spans="1:4">
-      <c r="A2450" s="1">
-        <v>10193</v>
-      </c>
-      <c r="B2450" s="1">
-        <v>130</v>
-      </c>
-      <c r="C2450" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2450" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2451" spans="1:4">
-      <c r="A2451" s="1">
-        <v>10194</v>
-      </c>
-      <c r="B2451" s="1">
-        <v>52</v>
-      </c>
-      <c r="C2451" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2451" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2452" spans="1:4">
-      <c r="A2452" s="1">
-        <v>10194</v>
-      </c>
-      <c r="B2452" s="1">
-        <v>75</v>
-      </c>
-      <c r="C2452" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2452" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2453" spans="1:4">
-      <c r="A2453" s="1">
-        <v>10194</v>
-      </c>
-      <c r="B2453" s="1">
-        <v>125</v>
-      </c>
-      <c r="C2453" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2453" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2454" spans="1:4">
-      <c r="A2454" s="1">
-        <v>10195</v>
-      </c>
-      <c r="B2454" s="1">
-        <v>11</v>
-      </c>
-      <c r="C2454" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2454" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2455" spans="1:4">
-      <c r="A2455" s="1">
-        <v>10195</v>
-      </c>
-      <c r="B2455" s="1">
-        <v>75</v>
-      </c>
-      <c r="C2455" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2455" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2456" spans="1:4">
-      <c r="A2456" s="1">
-        <v>10195</v>
-      </c>
-      <c r="B2456" s="1">
-        <v>93</v>
-      </c>
-      <c r="C2456" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2456" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2457" spans="1:4">
-      <c r="A2457" s="1">
-        <v>10196</v>
-      </c>
-      <c r="B2457" s="1">
-        <v>50</v>
-      </c>
-      <c r="C2457" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2457" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2458" spans="1:4">
-      <c r="A2458" s="1">
-        <v>10196</v>
-      </c>
-      <c r="B2458" s="1">
-        <v>91</v>
-      </c>
-      <c r="C2458" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2458" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2459" spans="1:4">
-      <c r="A2459" s="1">
-        <v>10196</v>
-      </c>
-      <c r="B2459" s="1">
-        <v>107</v>
-      </c>
-      <c r="C2459" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2459" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2460" spans="1:4">
-      <c r="A2460" s="1">
-        <v>10197</v>
-      </c>
-      <c r="B2460" s="1">
-        <v>17</v>
-      </c>
-      <c r="C2460" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2460" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2461" spans="1:4">
-      <c r="A2461" s="1">
-        <v>10197</v>
-      </c>
-      <c r="B2461" s="1">
-        <v>47</v>
-      </c>
-      <c r="C2461" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2461" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2462" spans="1:4">
-      <c r="A2462" s="1">
-        <v>10197</v>
-      </c>
-      <c r="B2462" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2462" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2462" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2463" spans="1:4">
-      <c r="A2463" s="1">
-        <v>10198</v>
-      </c>
-      <c r="B2463" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2463" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2463" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2464" spans="1:4">
-      <c r="A2464" s="1">
-        <v>10198</v>
-      </c>
-      <c r="B2464" s="1">
-        <v>133</v>
-      </c>
-      <c r="C2464" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2464" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2465" spans="1:4">
-      <c r="A2465" s="1">
-        <v>10198</v>
-      </c>
-      <c r="B2465" s="1">
-        <v>106</v>
-      </c>
-      <c r="C2465" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2465" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2466" spans="1:4">
-      <c r="A2466" s="1">
-        <v>10199</v>
-      </c>
-      <c r="B2466" s="1">
-        <v>89</v>
-      </c>
-      <c r="C2466" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2466" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2467" spans="1:4">
-      <c r="A2467" s="1">
-        <v>10200</v>
-      </c>
-      <c r="B2467" s="1">
-        <v>65</v>
-      </c>
-      <c r="C2467" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2467" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2468" spans="1:4">
-      <c r="A2468" s="1">
-        <v>10200</v>
-      </c>
-      <c r="B2468" s="1">
-        <v>229</v>
-      </c>
-      <c r="C2468" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2468" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2469" spans="1:4">
-      <c r="A2469" s="1">
-        <v>10201</v>
-      </c>
-      <c r="B2469" s="1">
-        <v>66</v>
-      </c>
-      <c r="C2469" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2469" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2470" spans="1:4">
-      <c r="A2470" s="1">
-        <v>10201</v>
-      </c>
-      <c r="B2470" s="1">
-        <v>236</v>
-      </c>
-      <c r="C2470" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2470" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2471" spans="1:4">
-      <c r="A2471" s="1">
-        <v>10202</v>
-      </c>
-      <c r="B2471" s="1">
-        <v>67</v>
-      </c>
-      <c r="C2471" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2471" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2472" spans="1:4">
-      <c r="A2472" s="1">
-        <v>10202</v>
-      </c>
-      <c r="B2472" s="1">
-        <v>97</v>
-      </c>
-      <c r="C2472" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2472" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2473" spans="1:4">
-      <c r="A2473" s="1">
-        <v>10203</v>
-      </c>
-      <c r="B2473" s="1">
-        <v>46</v>
-      </c>
-      <c r="C2473" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2473" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2474" spans="1:4">
-      <c r="A2474" s="1">
-        <v>10203</v>
-      </c>
-      <c r="B2474" s="1">
-        <v>127</v>
-      </c>
-      <c r="C2474" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2474" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2475" spans="1:4">
-      <c r="A2475" s="1">
-        <v>10203</v>
-      </c>
-      <c r="B2475" s="1">
-        <v>240</v>
-      </c>
-      <c r="C2475" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2475" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2476" spans="1:4">
-      <c r="A2476" s="1">
-        <v>10204</v>
-      </c>
-      <c r="B2476" s="1">
-        <v>68</v>
-      </c>
-      <c r="C2476" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2476" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2477" spans="1:4">
-      <c r="A2477" s="1">
-        <v>10204</v>
-      </c>
-      <c r="B2477" s="1">
-        <v>119</v>
-      </c>
-      <c r="C2477" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2477" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2478" spans="1:4">
-      <c r="A2478" s="1">
-        <v>10204</v>
-      </c>
-      <c r="B2478" s="1">
-        <v>140</v>
-      </c>
-      <c r="C2478" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2478" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2479" spans="1:4">
-      <c r="A2479" s="1">
-        <v>10205</v>
-      </c>
-      <c r="B2479" s="1">
-        <v>173</v>
-      </c>
-      <c r="C2479" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2479" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2480" spans="1:4">
-      <c r="A2480" s="1">
-        <v>10205</v>
-      </c>
-      <c r="B2480" s="1">
-        <v>75</v>
-      </c>
-      <c r="C2480" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2480" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2481" spans="1:4">
-      <c r="A2481" s="1">
-        <v>10205</v>
-      </c>
-      <c r="B2481" s="1">
-        <v>33</v>
-      </c>
-      <c r="C2481" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2481" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2482" spans="1:4">
-      <c r="A2482" s="1">
-        <v>10206</v>
-      </c>
-      <c r="B2482" s="1">
-        <v>243</v>
-      </c>
-      <c r="C2482" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2482" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2483" spans="1:4">
-      <c r="A2483" s="1">
-        <v>10206</v>
-      </c>
-      <c r="B2483" s="1">
-        <v>49</v>
-      </c>
-      <c r="C2483" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2483" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2484" spans="1:4">
-      <c r="A2484" s="1">
-        <v>10206</v>
-      </c>
-      <c r="B2484" s="1">
-        <v>18</v>
-      </c>
-      <c r="C2484" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2484" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2485" spans="1:4">
-      <c r="A2485" s="1">
-        <v>10207</v>
-      </c>
-      <c r="B2485" s="1">
-        <v>247</v>
-      </c>
-      <c r="C2485" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2485" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2486" spans="1:4">
-      <c r="A2486" s="1">
-        <v>10207</v>
-      </c>
-      <c r="B2486" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2486" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2486" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2487" spans="1:4">
-      <c r="A2487" s="1">
-        <v>10207</v>
-      </c>
-      <c r="B2487" s="1">
-        <v>55</v>
-      </c>
-      <c r="C2487" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2487" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2488" spans="1:4">
-      <c r="A2488" s="1">
-        <v>10208</v>
-      </c>
-      <c r="B2488" s="1">
-        <v>247</v>
-      </c>
-      <c r="C2488" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2488" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2489" spans="1:4">
-      <c r="A2489" s="1">
-        <v>10208</v>
-      </c>
-      <c r="B2489" s="1">
-        <v>82</v>
-      </c>
-      <c r="C2489" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2489" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2490" spans="1:4">
-      <c r="A2490" s="1">
-        <v>10208</v>
-      </c>
-      <c r="B2490" s="1">
-        <v>47</v>
-      </c>
-      <c r="C2490" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2490" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2491" spans="1:4">
-      <c r="A2491" s="1">
-        <v>10209</v>
-      </c>
-      <c r="B2491" s="1">
-        <v>245</v>
-      </c>
-      <c r="C2491" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2491" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2492" spans="1:4">
-      <c r="A2492" s="1">
-        <v>10209</v>
-      </c>
-      <c r="B2492" s="1">
-        <v>61</v>
-      </c>
-      <c r="C2492" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2492" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2493" spans="1:4">
-      <c r="A2493" s="1">
-        <v>10209</v>
-      </c>
-      <c r="B2493" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2493" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2493" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2494" spans="1:4">
-      <c r="A2494" s="1">
-        <v>10210</v>
-      </c>
-      <c r="B2494" s="1">
-        <v>244</v>
-      </c>
-      <c r="C2494" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2494" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2495" spans="1:4">
-      <c r="A2495" s="1">
-        <v>10210</v>
-      </c>
-      <c r="B2495" s="1">
-        <v>57</v>
-      </c>
-      <c r="C2495" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2495" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2496" spans="1:4">
-      <c r="A2496" s="1">
-        <v>10210</v>
-      </c>
-      <c r="B2496" s="1">
-        <v>101</v>
-      </c>
-      <c r="C2496" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2496" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2497" spans="1:4">
-      <c r="A2497" s="1">
-        <v>10211</v>
-      </c>
-      <c r="B2497" s="1">
-        <v>18</v>
-      </c>
-      <c r="C2497" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2497" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2498" spans="1:4">
-      <c r="A2498" s="1">
-        <v>10211</v>
-      </c>
-      <c r="B2498" s="1">
-        <v>73</v>
-      </c>
-      <c r="C2498" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2498" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2499" spans="1:4">
-      <c r="A2499" s="1">
-        <v>10211</v>
-      </c>
-      <c r="B2499" s="1">
-        <v>49</v>
-      </c>
-      <c r="C2499" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2499" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2500" spans="1:4">
-      <c r="A2500" s="1">
-        <v>10212</v>
-      </c>
-      <c r="B2500" s="1">
-        <v>131</v>
-      </c>
-      <c r="C2500" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2500" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2501" spans="1:4">
-      <c r="A2501" s="1">
-        <v>10212</v>
-      </c>
-      <c r="B2501" s="1">
-        <v>107</v>
-      </c>
-      <c r="C2501" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2501" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2502" spans="1:4">
-      <c r="A2502" s="1">
-        <v>10212</v>
-      </c>
-      <c r="B2502" s="1">
-        <v>156</v>
-      </c>
-      <c r="C2502" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2502" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2503" spans="1:4">
-      <c r="A2503" s="1">
-        <v>10213</v>
-      </c>
-      <c r="B2503" s="1">
-        <v>158</v>
-      </c>
-      <c r="C2503" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2503" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2504" spans="1:4">
-      <c r="A2504" s="1">
-        <v>10213</v>
-      </c>
-      <c r="B2504" s="1">
-        <v>119</v>
-      </c>
-      <c r="C2504" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2504" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2505" spans="1:4">
-      <c r="A2505" s="1">
-        <v>10213</v>
-      </c>
-      <c r="B2505" s="1">
-        <v>124</v>
-      </c>
-      <c r="C2505" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2505" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2506" spans="1:4">
-      <c r="A2506" s="1">
-        <v>10214</v>
-      </c>
-      <c r="B2506" s="1">
-        <v>175</v>
-      </c>
-      <c r="C2506" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2506" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2507" spans="1:4">
-      <c r="A2507" s="1">
-        <v>10214</v>
-      </c>
-      <c r="B2507" s="1">
-        <v>165</v>
-      </c>
-      <c r="C2507" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2507" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2508" spans="1:4">
-      <c r="A2508" s="1">
-        <v>10215</v>
-      </c>
-      <c r="B2508" s="1">
-        <v>125</v>
-      </c>
-      <c r="C2508" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2508" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2509" spans="1:4">
-      <c r="A2509" s="1">
-        <v>10215</v>
-      </c>
-      <c r="B2509" s="1">
-        <v>134</v>
-      </c>
-      <c r="C2509" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2509" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2510" spans="1:4">
-      <c r="A2510" s="1">
-        <v>10216</v>
-      </c>
-      <c r="B2510" s="1">
-        <v>135</v>
-      </c>
-      <c r="C2510" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2510" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2511" spans="1:4">
-      <c r="A2511" s="1">
-        <v>10216</v>
-      </c>
-      <c r="B2511" s="1">
-        <v>134</v>
-      </c>
-      <c r="C2511" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2511" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2512" spans="1:4">
-      <c r="A2512" s="1">
-        <v>10216</v>
-      </c>
-      <c r="B2512" s="1">
-        <v>242</v>
-      </c>
-      <c r="C2512" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2512" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2513" spans="1:4">
-      <c r="A2513" s="1">
-        <v>10217</v>
-      </c>
-      <c r="B2513" s="1">
-        <v>46</v>
-      </c>
-      <c r="C2513" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2513" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2514" spans="1:4">
-      <c r="A2514" s="1">
-        <v>10218</v>
-      </c>
-      <c r="B2514" s="1">
-        <v>260</v>
-      </c>
-      <c r="C2514" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2514" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2515" spans="1:4">
-      <c r="A2515" s="1">
-        <v>10219</v>
-      </c>
-      <c r="B2515" s="1">
-        <v>260</v>
-      </c>
-      <c r="C2515" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2515" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2516" spans="1:4">
-      <c r="A2516" s="1">
-        <v>10220</v>
-      </c>
-      <c r="B2516" s="1">
-        <v>244</v>
-      </c>
-      <c r="C2516" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2516" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2517" spans="1:4">
-      <c r="A2517" s="1">
-        <v>10220</v>
-      </c>
-      <c r="B2517" s="1">
-        <v>58</v>
-      </c>
-      <c r="C2517" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2517" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2518" spans="1:4">
-      <c r="A2518" s="1">
-        <v>10220</v>
-      </c>
-      <c r="B2518" s="1">
-        <v>101</v>
-      </c>
-      <c r="C2518" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2518" s="1">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
